--- a/Project1/道具说明.xlsx
+++ b/Project1/道具说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,51 +194,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>书名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海底两万里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>假如给我三天光明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老人与海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钢铁是怎样炼成的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挪威的森林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个人并不是生来要被打败的,你尽可以把他消灭掉,可就是打不败他。——《老人与海》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐心和持久胜过激烈和狂热。不管环境变换到何种地步，只有初衷与希望永不改变的人，才能最终克服困难，达到目的。——《海底两万里》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个人都有属于自己的一片森林，也许我们 从来不曾去过，但它一直在那里，总会在那里。迷失的人迷失了，相逢的人会再相逢。——《挪威的森林》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有时我会想，也许最好的生活方式便是将每一天当做自己的末日。用这样的态度去生活，生命的价值方可以得以彰显。——《假如给我三天光明》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人最宝贵的东西是生命.生命对人来说只有一次.因此,人的一生应当这样度过:当一个人回首往事时,不因虚度年华而悔恨,也不因碌碌无为而羞愧——《钢铁是怎样炼成的》</t>
+    <t>放火烧山，牢底坐穿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以变大任何东西，是的……任何</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是飞一样的感觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两段的跳跃，双倍的快乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我咋不上天呢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当上帝关上了一扇窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实是大功率电风扇哒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两米下有氮磷钾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度加快，速度加快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投石跑路，抛砖隐遁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比竹子长得绿，比马跳得高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一位前辈给我的，让人昏睡的飞镖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老大哥看不见你了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请在上称前五分钟使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班尼特福迪用锤子，我们用爪子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妈妈再也找不到我的零分卷子了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前人栽树，后人爬树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淹苗助长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功夫再高，也怕菜刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你把你的任意门给我交了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -295,6 +327,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -585,14 +625,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="54.75" customWidth="1"/>
-    <col min="4" max="4" width="28.875" customWidth="1"/>
+    <col min="3" max="3" width="60.75" customWidth="1"/>
+    <col min="4" max="4" width="66.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -619,6 +659,9 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
@@ -630,6 +673,9 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
@@ -641,6 +687,9 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
@@ -652,6 +701,9 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
@@ -663,6 +715,9 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
@@ -674,6 +729,9 @@
       <c r="C7" t="s">
         <v>15</v>
       </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
@@ -685,6 +743,9 @@
       <c r="C8" t="s">
         <v>30</v>
       </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
@@ -696,6 +757,9 @@
       <c r="C9" t="s">
         <v>31</v>
       </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
@@ -707,6 +771,9 @@
       <c r="C10" t="s">
         <v>32</v>
       </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
@@ -718,6 +785,9 @@
       <c r="C11" t="s">
         <v>33</v>
       </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
@@ -729,6 +799,9 @@
       <c r="C12" t="s">
         <v>34</v>
       </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
@@ -740,6 +813,9 @@
       <c r="C13" t="s">
         <v>35</v>
       </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
@@ -751,6 +827,9 @@
       <c r="C14" t="s">
         <v>36</v>
       </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
@@ -762,6 +841,9 @@
       <c r="C15" t="s">
         <v>37</v>
       </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
@@ -773,8 +855,11 @@
       <c r="C16" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -784,8 +869,11 @@
       <c r="C17" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -795,8 +883,11 @@
       <c r="C18" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -806,8 +897,11 @@
       <c r="C19" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -817,8 +911,11 @@
       <c r="C20" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -827,6 +924,9 @@
       </c>
       <c r="C21" t="s">
         <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -838,67 +938,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="2" width="120.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
